--- a/XGB_1 1.xlsx
+++ b/XGB_1 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus Vivobook 16\OneDrive - IAC SAS\Documentos\Github\Arkad\src\models\David\SPY-David-Open-to-Close\S&amp;P500\Data\Backtest\To Tester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC28610-6D99-40DD-9B29-CFA5ACB73419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4997C7E5-21BA-4830-8AE2-50E4EC5D4F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C647"/>
+  <dimension ref="A1:C646"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A615" workbookViewId="0">
+      <selection activeCell="D651" sqref="D651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7507,11 +7507,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C647">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
